--- a/pred_ohlcv/54_21/2020-01-22 FAB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 FAB ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-677409.8999064242</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-669409.8999064242</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-671439.8999064242</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-671439.8999064242</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-671406.6892064242</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-671439.6892064242</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-668546.7761886682</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-668546.7761886682</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-684562.7986886682</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-684562.7986886682</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-684336.3172886681</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-694769.3897886681</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-803012.7039325385</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-808942.2666325385</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-966789.1533785155</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-5929443.470385325</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-5986655.536985325</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-5986655.536985325</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-5986655.536985325</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-5986655.536985325</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-5936624.442485325</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-6252490.634185325</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-6237751.798585325</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-6376085.616385325</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-6469588.655085325</v>
       </c>
       <c r="H375">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-6483512.916885326</v>
       </c>
       <c r="H376">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-6477312.916885326</v>
       </c>
       <c r="H377">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-6515594.896385326</v>
       </c>
       <c r="H379">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-6619897.325685326</v>
       </c>
       <c r="H385">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-6619897.325685326</v>
       </c>
       <c r="H386">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-6644897.325685326</v>
       </c>
       <c r="H387">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-4836526.664380305</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-4838275.301480304</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-4844275.301480304</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-4860923.935380304</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-4860456.350580304</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-4860456.350580304</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-4868456.350580304</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-5000654.672480304</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-5000654.672480304</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-5268013.010380304</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-22 FAB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 FAB ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-677409.8999064242</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-669409.8999064242</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-669409.8999064242</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-671439.8999064242</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-671439.8999064242</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-671406.6892064242</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-671439.6892064242</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-668546.7761886682</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-668546.7761886682</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-684562.7986886682</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-684562.7986886682</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-684336.3172886681</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-694769.3897886681</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-850072.1916886681</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-803012.7039325385</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-803012.7039325385</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-808942.2666325385</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-810119.5539325385</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-878108.4102785155</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-883908.4102785155</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-902886.7091785156</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-902886.7091785156</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-902886.7091785156</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-908003.4805785156</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-903943.1666785156</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-891943.1666785156</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-791452.4389785156</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-791452.4389785156</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-966789.1533785155</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-966789.1533785155</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-1144298.692401637</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-1128863.847801637</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-1128863.847801637</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-1128863.847801637</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-1128863.847801637</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-1131677.300101637</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-1314490.775001637</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-982775.8139016369</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-964745.8139016369</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-965745.8139016369</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-965745.8139016369</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-965745.8139016369</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-965745.8139016369</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-965745.8139016369</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-965745.8139016369</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-965745.8139016369</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-965745.8139016369</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-965909.1097016368</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-941146.1222694732</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-921467.6822694732</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-936601.7155694732</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-936601.7155694732</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-936601.7155694732</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-926023.9769694732</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-926023.9769694732</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-926023.9769694732</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-926023.9769694732</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-926023.9769694732</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-926023.9769694732</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-942003.3050694732</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-1048620.849069473</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-1038881.475369473</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-1038551.475369473</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-1038582.475369473</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-1039268.010069473</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-1041138.964469473</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-1041108.964469473</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-1041108.964469473</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-1058282.360169473</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-1267384.684369473</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-5891410.276085326</v>
       </c>
       <c r="H352">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-5891379.276085326</v>
       </c>
       <c r="H353">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-5891379.276085326</v>
       </c>
       <c r="H354">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-5929443.470385325</v>
       </c>
       <c r="H356">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-5986655.536985325</v>
       </c>
       <c r="H357">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-5986655.536985325</v>
       </c>
       <c r="H358">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-5986655.536985325</v>
       </c>
       <c r="H359">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-5986655.536985325</v>
       </c>
       <c r="H360">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-5986655.536985325</v>
       </c>
       <c r="H361">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-5936624.442485325</v>
       </c>
       <c r="H362">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-6252490.634185325</v>
       </c>
       <c r="H363">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-6237751.798585325</v>
       </c>
       <c r="H364">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-6379416.319985325</v>
       </c>
       <c r="H370">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-6376085.616385325</v>
       </c>
       <c r="H371">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-6477312.916885326</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-6619897.325685326</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-6644897.325685326</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-6644897.325685326</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-4836526.664380305</v>
       </c>
       <c r="H419">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-4838275.301480304</v>
       </c>
       <c r="H420">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-4844275.301480304</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-4860923.935380304</v>
       </c>
       <c r="H422">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-4860456.350580304</v>
       </c>
       <c r="H423">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-4860456.350580304</v>
       </c>
       <c r="H424">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-4868456.350580304</v>
       </c>
       <c r="H425">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-5000654.672480304</v>
       </c>
       <c r="H426">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-5000654.672480304</v>
       </c>
       <c r="H427">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-5268013.010380304</v>
       </c>
       <c r="H436">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
